--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T10:15:26+00:00</t>
+    <t>2025-11-04T16:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T16:40:09+00:00</t>
+    <t>2025-11-05T08:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T08:44:55+00:00</t>
+    <t>2025-11-06T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T14:31:44+00:00</t>
+    <t>2025-11-13T08:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T08:07:59+00:00</t>
+    <t>2025-11-13T14:39:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T14:39:46+00:00</t>
+    <t>2025-11-14T16:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:44:58+00:00</t>
+    <t>2025-11-14T17:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T17:06:33+00:00</t>
+    <t>2025-11-17T09:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T09:01:12+00:00</t>
+    <t>2025-11-17T12:25:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
+++ b/feature/modif-narratif-redescente-LRM/ig/ValueSet-sas-sos-valueset-participant-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-17T12:25:04+00:00</t>
+    <t>2025-11-21T13:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
